--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\handa\Documents\CMU\year4_semester1\PROJECTS\clothes\csvs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\handa\Documents\CMU\year4_semester1\PROJECTS\clothes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="outfits" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="82">
   <si>
     <t>black corduroys</t>
   </si>
@@ -37,24 +37,15 @@
     <t>black boots</t>
   </si>
   <si>
-    <t>red bombas</t>
-  </si>
-  <si>
     <t>pants</t>
   </si>
   <si>
-    <t>socks</t>
-  </si>
-  <si>
     <t>black tights</t>
   </si>
   <si>
     <t>purple lace dress</t>
   </si>
   <si>
-    <t>dark grey bombas</t>
-  </si>
-  <si>
     <t>light skinny jeans</t>
   </si>
   <si>
@@ -67,18 +58,12 @@
     <t>striped sweater</t>
   </si>
   <si>
-    <t>google socks</t>
-  </si>
-  <si>
     <t>blue flowered tank top</t>
   </si>
   <si>
     <t>r&amp;g t shirt</t>
   </si>
   <si>
-    <t>blue ankle bombas</t>
-  </si>
-  <si>
     <t>black flowered dress</t>
   </si>
   <si>
@@ -91,12 +76,6 @@
     <t>black lace tank top</t>
   </si>
   <si>
-    <t>light grey bombas</t>
-  </si>
-  <si>
-    <t>navy blue crew bombas</t>
-  </si>
-  <si>
     <t>red lace shirt</t>
   </si>
   <si>
@@ -115,15 +94,9 @@
     <t>black ripped jeans</t>
   </si>
   <si>
-    <t>brown bombas</t>
-  </si>
-  <si>
     <t>grey flowered sweater</t>
   </si>
   <si>
-    <t>short striped bombas</t>
-  </si>
-  <si>
     <t>blue plaid skirt</t>
   </si>
   <si>
@@ -136,9 +109,6 @@
     <t>tribal tank top</t>
   </si>
   <si>
-    <t>polka dot socks</t>
-  </si>
-  <si>
     <t>grey cardigan</t>
   </si>
   <si>
@@ -151,30 +121,15 @@
     <t>blue plaid shirt</t>
   </si>
   <si>
-    <t>grey knee socks</t>
-  </si>
-  <si>
     <t>soft blue button down</t>
   </si>
   <si>
-    <t>maroon knee socks</t>
-  </si>
-  <si>
     <t>grey crop top</t>
   </si>
   <si>
-    <t>skirts</t>
-  </si>
-  <si>
-    <t>dresses</t>
-  </si>
-  <si>
     <t>other</t>
   </si>
   <si>
-    <t>tops</t>
-  </si>
-  <si>
     <t>cream backless dress</t>
   </si>
   <si>
@@ -184,9 +139,6 @@
     <t>tribal crop top</t>
   </si>
   <si>
-    <t>light grey striped bombas</t>
-  </si>
-  <si>
     <t>navy blue romper</t>
   </si>
   <si>
@@ -223,9 +175,6 @@
     <t>sneakers</t>
   </si>
   <si>
-    <t>black striped bombas</t>
-  </si>
-  <si>
     <t>black bra</t>
   </si>
   <si>
@@ -233,6 +182,96 @@
   </si>
   <si>
     <t>black jeans</t>
+  </si>
+  <si>
+    <t>purple triangle dress</t>
+  </si>
+  <si>
+    <t>black vans</t>
+  </si>
+  <si>
+    <t>pink tee</t>
+  </si>
+  <si>
+    <t>thirsty thursday tank</t>
+  </si>
+  <si>
+    <t>maroon skirt</t>
+  </si>
+  <si>
+    <t>light flared jeans</t>
+  </si>
+  <si>
+    <t>silver tank top</t>
+  </si>
+  <si>
+    <t>rosie the riveter tank top</t>
+  </si>
+  <si>
+    <t>sparkly grey dress</t>
+  </si>
+  <si>
+    <t>see through dress</t>
+  </si>
+  <si>
+    <t>navy circle skirt</t>
+  </si>
+  <si>
+    <t>white dress</t>
+  </si>
+  <si>
+    <t>hawaiian shirt</t>
+  </si>
+  <si>
+    <t>gold vans</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>skirt</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>sweater</t>
+  </si>
+  <si>
+    <t>dress</t>
+  </si>
+  <si>
+    <t>shoes</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>grey</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>multi</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>pink</t>
   </si>
 </sst>
 </file>
@@ -551,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -567,7 +606,7 @@
     <col min="6" max="6" width="21.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <v>43484</v>
       </c>
@@ -575,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -583,48 +622,39 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43485</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43486</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43487</v>
       </c>
@@ -632,221 +662,188 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43488</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43489</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
       </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43490</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>43490</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>43491</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>43492</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>43493</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>43494</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
       </c>
-      <c r="F12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>43495</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>43496</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
         <v>2</v>
       </c>
-      <c r="F14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>43497</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
         <v>1</v>
@@ -854,65 +851,53 @@
       <c r="E15" t="s">
         <v>2</v>
       </c>
-      <c r="F15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>43497</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
         <v>2</v>
       </c>
-      <c r="F16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>43498</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>43499</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>43500</v>
       </c>
@@ -920,75 +905,63 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
         <v>2</v>
       </c>
-      <c r="F19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>43501</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>43502</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>43503</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>43504</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
         <v>1</v>
@@ -996,105 +969,338 @@
       <c r="E23" t="s">
         <v>2</v>
       </c>
-      <c r="F23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>43504</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>43505</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>43505</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>43506</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>43507</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>43508</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" t="s">
         <v>42</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>43509</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>43510</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>43514</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
         <v>8</v>
       </c>
-      <c r="E28" t="s">
+      <c r="D32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>43515</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>43516</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>43517</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>43518</v>
+      </c>
+      <c r="B36" t="s">
         <v>57</v>
+      </c>
+      <c r="C36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>43520</v>
+      </c>
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>43521</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>43522</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>43523</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>43524</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>43525</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>43526</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>43527</v>
+      </c>
+      <c r="B44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1104,10 +1310,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1121,182 +1327,356 @@
     <col min="11" max="11" width="27.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>35</v>
       </c>
-      <c r="D2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C13" t="s">
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C17" t="s">
-        <v>14</v>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="outfits" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="82">
   <si>
     <t>black corduroys</t>
   </si>
@@ -590,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1303,6 +1303,23 @@
         <v>65</v>
       </c>
     </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>43528</v>
+      </c>
+      <c r="B45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1312,7 +1329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
